--- a/b2.xlsx
+++ b/b2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G\Documents\qp\fruit_impedance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28691E-310F-46F4-8A03-93767621FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31422CA2-70CB-4E34-8F72-609E2E2287EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b2" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>Frequency</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>mon</t>
+  </si>
+  <si>
+    <t>fri2</t>
   </si>
 </sst>
 </file>
@@ -3216,6 +3219,646 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>fri_2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'b2'!$A$144:$A$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27200</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28800</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29400</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29600</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29800</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'b2'!$C$144:$C$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-78.397197256337407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-78.167896465394605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-78.259778783207096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-77.951204761233697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-78.010291902325093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-77.770087239221596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-77.733287802736598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-77.7840360331965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-77.505841397281699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-77.583191910995595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-77.349281837239005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-77.222582353747697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-77.270689425447898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-77.142751321765402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-76.864861185563498</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-76.935306517188707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-76.851808431466594</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-76.619362372875202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-76.593932479918294</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-76.378668253508593</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-76.383190539292201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-76.139175283218705</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-76.157895219582798</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-75.812630111547804</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-75.803952755489604</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-75.547525711814401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-75.302222463952106</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-75.149722541928696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-74.920391572519407</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-74.661111715219107</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-74.237191138825295</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-74.187894798884599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-73.728781098437295</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-73.615120977984802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-73.163070449147298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-73.085435297655295</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-72.673988945042694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-72.445199308868695</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-72.003101326808604</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-71.786777121728207</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-71.564729769656793</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-71.076111572169793</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-70.843757350505399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-70.542790957616205</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-70.212476638124002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-69.893385925567301</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-69.396937399262001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-69.340510913072904</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-68.791222850213998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-68.676916848252802</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-68.292988258658397</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-68.205286786370493</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-67.631023042488394</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-67.320685006561604</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-66.723060453672105</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-66.475284553646802</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-65.850865516168795</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-65.622488679411603</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-65.133906305803706</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-64.995323514601495</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-64.587762187706801</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-64.433723174225705</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-64.238176143329</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-64.098071449629899</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-64.055927142438705</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-63.159835799762</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-62.696361989809503</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-61.985656826136498</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-61.609580127143097</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-60.895744536873799</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-60.594024434729398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-59.839147376935998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-59.621199935088498</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-59.057248533528799</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-58.822572787287001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-58.5041726109161</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-58.184694149510896</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-57.9105341711699</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-57.631324303386101</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-57.660320617461899</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-57.500227831833399</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-57.543608265975202</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-57.435888875663998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-57.571298677364403</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-57.074995558227499</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-56.4867974534585</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-55.529766329060301</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-55.066874039911099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-54.323337787193402</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-53.645834490535101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-52.847356147910503</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-52.252731736902803</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-51.493746328715702</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-50.894792081474698</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-50.279562357896602</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-49.584848847995502</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-49.0399957364735</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-48.327582881327402</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-47.813608542792302</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-47.055779930042497</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-46.5639463788497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DD7-4DDF-A298-7DE7AA241A1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6177,6 +6820,665 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E5FF-4FB5-9C96-4EED4CC3B60F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>fri_2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'b2'!$A$144:$A$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17400</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18800</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20400</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22400</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22800</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24800</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>25400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>25800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27200</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27400</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27800</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28800</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29400</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29600</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29800</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'b2'!$B$144:$B$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>80023.428168808896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78393.491931449404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77487.584364570095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75947.952282932398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75134.925417371895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73821.459417344406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72793.272674823602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71919.576481783894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70577.294637899802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69863.6493078559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68767.986698802604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67813.822318094302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67078.012249038598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66151.878289020693</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65155.989944497698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64516.184481451302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63709.421384966699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62805.092854346804</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62146.346659314098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61318.593238205198</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60817.6854766631</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60066.343980835198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59592.119506946598</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58887.567951272198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58506.000683533603</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58019.225968719198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57489.943924709303</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57135.116660935702</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56742.864442461199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56333.949190603998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55879.949288213204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55652.212094774397</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55256.542549395097</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54997.408473365504</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54622.851186174797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54399.900743242099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54095.322548554301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>53849.207124042303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53606.533490082598</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53390.178349450798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53180.672482473798</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52875.703368469498</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52642.367957893199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>52491.524519409999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>52348.319398013002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52216.348316360702</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52055.181520401602</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51968.519431201399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51720.5314062662</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51568.7708198404</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51325.929753048302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51158.306264024402</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51026.099369467403</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>51004.464017213002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50889.706163353701</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50838.796781746103</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50735.754667640504</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50674.137722482599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50549.013311687297</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>50457.361313903697</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50346.375525104202</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50219.563417753998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50053.695410238601</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49809.741451448899</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49718.972896459898</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49655.7855331795</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>49651.940518923402</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>49648.146985734398</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49652.527876346699</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>49614.211313166998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>49623.582694472803</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>49584.457257845403</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>49592.195027244503</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>49544.3548993859</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>49521.569101153997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>49454.860380584403</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>49402.575086053199</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49324.439825166599</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>49219.317935449799</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49091.147182598303</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>48931.780314728698</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>48783.030035738702</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>48522.495769995301</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>48276.251837411903</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>48170.140738775997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>48168.662819503799</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>48170.171809508603</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48187.382666404497</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>48234.012666212897</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>48186.470766783197</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>48181.757730026198</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>48179.953793081302</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>48181.052966570896</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>48185.4194278223</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>48186.052964480703</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>48178.115979087102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48199.772741959197</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48198.610842011403</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>48194.619392988599</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>48186.836971893499</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>48192.225091690903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9338-4013-9D0C-A6F507ECFA3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6998,14 +8300,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:colOff>575094</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7330,10 +8632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T208"/>
+  <dimension ref="A1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A143" sqref="A142:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13495,7 +14797,7 @@
         <v>2093.1168147048102</v>
       </c>
     </row>
-    <row r="129" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O129">
         <v>14200</v>
       </c>
@@ -13515,7 +14817,7 @@
         <v>2121.3318929389602</v>
       </c>
     </row>
-    <row r="130" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O130">
         <v>14400</v>
       </c>
@@ -13535,7 +14837,7 @@
         <v>2153.8453983515201</v>
       </c>
     </row>
-    <row r="131" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O131">
         <v>14600</v>
       </c>
@@ -13555,7 +14857,7 @@
         <v>2183.3758265585002</v>
       </c>
     </row>
-    <row r="132" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O132">
         <v>14800</v>
       </c>
@@ -13575,7 +14877,7 @@
         <v>2210.54291973714</v>
       </c>
     </row>
-    <row r="133" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O133">
         <v>15000</v>
       </c>
@@ -13595,7 +14897,7 @@
         <v>2231.0143432976802</v>
       </c>
     </row>
-    <row r="134" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O134">
         <v>15200</v>
       </c>
@@ -13615,7 +14917,7 @@
         <v>2255.0691785397598</v>
       </c>
     </row>
-    <row r="135" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O135">
         <v>15400</v>
       </c>
@@ -13635,7 +14937,7 @@
         <v>2286.97179694022</v>
       </c>
     </row>
-    <row r="136" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O136">
         <v>15600</v>
       </c>
@@ -13655,7 +14957,7 @@
         <v>2315.1192193923798</v>
       </c>
     </row>
-    <row r="137" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O137">
         <v>15800</v>
       </c>
@@ -13675,7 +14977,7 @@
         <v>2345.7779093511799</v>
       </c>
     </row>
-    <row r="138" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O138">
         <v>16000</v>
       </c>
@@ -13695,7 +14997,7 @@
         <v>2377.0933932010298</v>
       </c>
     </row>
-    <row r="139" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O139">
         <v>16200</v>
       </c>
@@ -13715,7 +15017,7 @@
         <v>2397.6830482780701</v>
       </c>
     </row>
-    <row r="140" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O140">
         <v>16400</v>
       </c>
@@ -13735,7 +15037,7 @@
         <v>2430.8774136101601</v>
       </c>
     </row>
-    <row r="141" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O141">
         <v>16600</v>
       </c>
@@ -13755,7 +15057,10 @@
         <v>2455.6557169114699</v>
       </c>
     </row>
-    <row r="142" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
       <c r="O142">
         <v>16800</v>
       </c>
@@ -13775,7 +15080,25 @@
         <v>2480.66120217977</v>
       </c>
     </row>
-    <row r="143" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5</v>
+      </c>
       <c r="O143">
         <v>17000</v>
       </c>
@@ -13795,7 +15118,25 @@
         <v>2507.3129042861801</v>
       </c>
     </row>
-    <row r="144" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>10000</v>
+      </c>
+      <c r="B144">
+        <v>80023.428168808896</v>
+      </c>
+      <c r="C144">
+        <v>-78.397197256337407</v>
+      </c>
+      <c r="D144">
+        <v>-11205</v>
+      </c>
+      <c r="E144">
+        <v>-5111</v>
+      </c>
+      <c r="F144">
+        <v>12315.613910804401</v>
+      </c>
       <c r="O144">
         <v>17200</v>
       </c>
@@ -13815,7 +15156,25 @@
         <v>2529.7321992653701</v>
       </c>
     </row>
-    <row r="145" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>10200</v>
+      </c>
+      <c r="B145">
+        <v>78393.491931449404</v>
+      </c>
+      <c r="C145">
+        <v>-78.167896465394605</v>
+      </c>
+      <c r="D145">
+        <v>-11417</v>
+      </c>
+      <c r="E145">
+        <v>-5263</v>
+      </c>
+      <c r="F145">
+        <v>12571.6768173542</v>
+      </c>
       <c r="O145">
         <v>17400</v>
       </c>
@@ -13835,7 +15194,25 @@
         <v>2557.7226198319499</v>
       </c>
     </row>
-    <row r="146" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>10400</v>
+      </c>
+      <c r="B146">
+        <v>77487.584364570095</v>
+      </c>
+      <c r="C146">
+        <v>-78.259778783207096</v>
+      </c>
+      <c r="D146">
+        <v>-11559</v>
+      </c>
+      <c r="E146">
+        <v>-5306</v>
+      </c>
+      <c r="F146">
+        <v>12718.6523264063</v>
+      </c>
       <c r="O146">
         <v>17600</v>
       </c>
@@ -13855,7 +15232,25 @@
         <v>2599.1587100444599</v>
       </c>
     </row>
-    <row r="147" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>10600</v>
+      </c>
+      <c r="B147">
+        <v>75947.952282932398</v>
+      </c>
+      <c r="C147">
+        <v>-77.951204761233697</v>
+      </c>
+      <c r="D147">
+        <v>-11764</v>
+      </c>
+      <c r="E147">
+        <v>-5477</v>
+      </c>
+      <c r="F147">
+        <v>12976.487390661599</v>
+      </c>
       <c r="O147">
         <v>17800</v>
       </c>
@@ -13875,7 +15270,25 @@
         <v>2621.54153123692</v>
       </c>
     </row>
-    <row r="148" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>10800</v>
+      </c>
+      <c r="B148">
+        <v>75134.925417371895</v>
+      </c>
+      <c r="C148">
+        <v>-78.010291902325093</v>
+      </c>
+      <c r="D148">
+        <v>-11897</v>
+      </c>
+      <c r="E148">
+        <v>-5524</v>
+      </c>
+      <c r="F148">
+        <v>13116.904550998301</v>
+      </c>
       <c r="O148">
         <v>18000</v>
       </c>
@@ -13895,7 +15308,25 @@
         <v>2643.8141008777502</v>
       </c>
     </row>
-    <row r="149" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>11000</v>
+      </c>
+      <c r="B149">
+        <v>73821.459417344406</v>
+      </c>
+      <c r="C149">
+        <v>-77.770087239221596</v>
+      </c>
+      <c r="D149">
+        <v>-12085</v>
+      </c>
+      <c r="E149">
+        <v>-5673</v>
+      </c>
+      <c r="F149">
+        <v>13350.2866635889</v>
+      </c>
       <c r="O149">
         <v>18200</v>
       </c>
@@ -13915,7 +15346,25 @@
         <v>2676.5500182137498</v>
       </c>
     </row>
-    <row r="150" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>11200</v>
+      </c>
+      <c r="B150">
+        <v>72793.272674823602</v>
+      </c>
+      <c r="C150">
+        <v>-77.733287802736598</v>
+      </c>
+      <c r="D150">
+        <v>-12252</v>
+      </c>
+      <c r="E150">
+        <v>-5761</v>
+      </c>
+      <c r="F150">
+        <v>13538.8561185944</v>
+      </c>
       <c r="O150">
         <v>18400</v>
       </c>
@@ -13935,7 +15384,25 @@
         <v>2690.8860994103802</v>
       </c>
     </row>
-    <row r="151" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>11400</v>
+      </c>
+      <c r="B151">
+        <v>71919.576481783894</v>
+      </c>
+      <c r="C151">
+        <v>-77.7840360331965</v>
+      </c>
+      <c r="D151">
+        <v>-12406</v>
+      </c>
+      <c r="E151">
+        <v>-5820</v>
+      </c>
+      <c r="F151">
+        <v>13703.329376469101</v>
+      </c>
       <c r="O151">
         <v>18600</v>
       </c>
@@ -13955,7 +15422,25 @@
         <v>2714.65448998579</v>
       </c>
     </row>
-    <row r="152" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>11600</v>
+      </c>
+      <c r="B152">
+        <v>70577.294637899802</v>
+      </c>
+      <c r="C152">
+        <v>-77.505841397281699</v>
+      </c>
+      <c r="D152">
+        <v>-12613</v>
+      </c>
+      <c r="E152">
+        <v>-5992</v>
+      </c>
+      <c r="F152">
+        <v>13963.9476151982</v>
+      </c>
       <c r="O152">
         <v>18800</v>
       </c>
@@ -13975,7 +15460,25 @@
         <v>2766.3846442604499</v>
       </c>
     </row>
-    <row r="153" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>11800</v>
+      </c>
+      <c r="B153">
+        <v>69863.6493078559</v>
+      </c>
+      <c r="C153">
+        <v>-77.583191910995595</v>
+      </c>
+      <c r="D153">
+        <v>-12750</v>
+      </c>
+      <c r="E153">
+        <v>-6036</v>
+      </c>
+      <c r="F153">
+        <v>14106.586972049599</v>
+      </c>
       <c r="O153">
         <v>19000</v>
       </c>
@@ -13995,7 +15498,25 @@
         <v>2788.4224930953301</v>
       </c>
     </row>
-    <row r="154" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>12000</v>
+      </c>
+      <c r="B154">
+        <v>68767.986698802604</v>
+      </c>
+      <c r="C154">
+        <v>-77.349281837239005</v>
+      </c>
+      <c r="D154">
+        <v>-12928</v>
+      </c>
+      <c r="E154">
+        <v>-6185</v>
+      </c>
+      <c r="F154">
+        <v>14331.3435866984</v>
+      </c>
       <c r="O154">
         <v>19200</v>
       </c>
@@ -14015,7 +15536,25 @@
         <v>2810.1838018179501</v>
       </c>
     </row>
-    <row r="155" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>12200</v>
+      </c>
+      <c r="B155">
+        <v>67813.822318094302</v>
+      </c>
+      <c r="C155">
+        <v>-77.222582353747697</v>
+      </c>
+      <c r="D155">
+        <v>-13096</v>
+      </c>
+      <c r="E155">
+        <v>-6301</v>
+      </c>
+      <c r="F155">
+        <v>14532.990641984199</v>
+      </c>
       <c r="O155">
         <v>19400</v>
       </c>
@@ -14035,7 +15574,25 @@
         <v>2829.5952007310202</v>
       </c>
     </row>
-    <row r="156" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>12400</v>
+      </c>
+      <c r="B156">
+        <v>67078.012249038598</v>
+      </c>
+      <c r="C156">
+        <v>-77.270689425447898</v>
+      </c>
+      <c r="D156">
+        <v>-13245</v>
+      </c>
+      <c r="E156">
+        <v>-6359</v>
+      </c>
+      <c r="F156">
+        <v>14692.4098091498</v>
+      </c>
       <c r="O156">
         <v>19600</v>
       </c>
@@ -14055,7 +15612,25 @@
         <v>2842.1831397712599</v>
       </c>
     </row>
-    <row r="157" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>12600</v>
+      </c>
+      <c r="B157">
+        <v>66151.878289020693</v>
+      </c>
+      <c r="C157">
+        <v>-77.142751321765402</v>
+      </c>
+      <c r="D157">
+        <v>-13416</v>
+      </c>
+      <c r="E157">
+        <v>-6478</v>
+      </c>
+      <c r="F157">
+        <v>14898.1052486549</v>
+      </c>
       <c r="O157">
         <v>19800</v>
       </c>
@@ -14075,7 +15650,25 @@
         <v>2883.8949356729299</v>
       </c>
     </row>
-    <row r="158" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>12800</v>
+      </c>
+      <c r="B158">
+        <v>65155.989944497698</v>
+      </c>
+      <c r="C158">
+        <v>-76.864861185563498</v>
+      </c>
+      <c r="D158">
+        <v>-13589</v>
+      </c>
+      <c r="E158">
+        <v>-6643</v>
+      </c>
+      <c r="F158">
+        <v>15125.817994409401</v>
+      </c>
       <c r="O158">
         <v>20000</v>
       </c>
@@ -14095,7 +15688,25 @@
         <v>2918.6435205416901</v>
       </c>
     </row>
-    <row r="159" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>13000</v>
+      </c>
+      <c r="B159">
+        <v>64516.184481451302</v>
+      </c>
+      <c r="C159">
+        <v>-76.935306517188707</v>
+      </c>
+      <c r="D159">
+        <v>-13732</v>
+      </c>
+      <c r="E159">
+        <v>-6692</v>
+      </c>
+      <c r="F159">
+        <v>15275.820370769001</v>
+      </c>
       <c r="O159">
         <v>20200</v>
       </c>
@@ -14115,7 +15726,25 @@
         <v>2949.1249549654599</v>
       </c>
     </row>
-    <row r="160" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>13200</v>
+      </c>
+      <c r="B160">
+        <v>63709.421384966699</v>
+      </c>
+      <c r="C160">
+        <v>-76.851808431466594</v>
+      </c>
+      <c r="D160">
+        <v>-13896</v>
+      </c>
+      <c r="E160">
+        <v>-6797</v>
+      </c>
+      <c r="F160">
+        <v>15469.260648137</v>
+      </c>
       <c r="O160">
         <v>20400</v>
       </c>
@@ -14135,7 +15764,25 @@
         <v>2977.1429256923502</v>
       </c>
     </row>
-    <row r="161" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>13400</v>
+      </c>
+      <c r="B161">
+        <v>62805.092854346804</v>
+      </c>
+      <c r="C161">
+        <v>-76.619362372875202</v>
+      </c>
+      <c r="D161">
+        <v>-14068</v>
+      </c>
+      <c r="E161">
+        <v>-6952</v>
+      </c>
+      <c r="F161">
+        <v>15692.0020392555</v>
+      </c>
       <c r="O161">
         <v>20600</v>
       </c>
@@ -14155,7 +15802,25 @@
         <v>2995.64550639758</v>
       </c>
     </row>
-    <row r="162" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>13600</v>
+      </c>
+      <c r="B162">
+        <v>62146.346659314098</v>
+      </c>
+      <c r="C162">
+        <v>-76.593932479918294</v>
+      </c>
+      <c r="D162">
+        <v>-14214</v>
+      </c>
+      <c r="E162">
+        <v>-7032</v>
+      </c>
+      <c r="F162">
+        <v>15858.3359782797</v>
+      </c>
       <c r="O162">
         <v>20800</v>
       </c>
@@ -14175,7 +15840,25 @@
         <v>3024.0504294736902</v>
       </c>
     </row>
-    <row r="163" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>13800</v>
+      </c>
+      <c r="B163">
+        <v>61318.593238205198</v>
+      </c>
+      <c r="C163">
+        <v>-76.378668253508593</v>
+      </c>
+      <c r="D163">
+        <v>-14379</v>
+      </c>
+      <c r="E163">
+        <v>-7181</v>
+      </c>
+      <c r="F163">
+        <v>16072.4112067854</v>
+      </c>
       <c r="O163">
         <v>21000</v>
       </c>
@@ -14195,7 +15878,25 @@
         <v>3053.3931944641499</v>
       </c>
     </row>
-    <row r="164" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>14000</v>
+      </c>
+      <c r="B164">
+        <v>60817.6854766631</v>
+      </c>
+      <c r="C164">
+        <v>-76.383190539292201</v>
+      </c>
+      <c r="D164">
+        <v>-14498</v>
+      </c>
+      <c r="E164">
+        <v>-7239</v>
+      </c>
+      <c r="F164">
+        <v>16204.7871013476</v>
+      </c>
       <c r="O164">
         <v>21200</v>
       </c>
@@ -14215,7 +15916,25 @@
         <v>3080.3189769892301</v>
       </c>
     </row>
-    <row r="165" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>14200</v>
+      </c>
+      <c r="B165">
+        <v>60066.343980835198</v>
+      </c>
+      <c r="C165">
+        <v>-76.139175283218705</v>
+      </c>
+      <c r="D165">
+        <v>-14648</v>
+      </c>
+      <c r="E165">
+        <v>-7392</v>
+      </c>
+      <c r="F165">
+        <v>16407.485121126902</v>
+      </c>
       <c r="O165">
         <v>21400</v>
       </c>
@@ -14235,7 +15954,25 @@
         <v>3106.1025417716</v>
       </c>
     </row>
-    <row r="166" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>14400</v>
+      </c>
+      <c r="B166">
+        <v>59592.119506946598</v>
+      </c>
+      <c r="C166">
+        <v>-76.157895219582798</v>
+      </c>
+      <c r="D166">
+        <v>-14767</v>
+      </c>
+      <c r="E166">
+        <v>-7446</v>
+      </c>
+      <c r="F166">
+        <v>16538.053240935002</v>
+      </c>
       <c r="O166">
         <v>21600</v>
       </c>
@@ -14255,7 +15992,25 @@
         <v>3135.3744592950902</v>
       </c>
     </row>
-    <row r="167" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>14600</v>
+      </c>
+      <c r="B167">
+        <v>58887.567951272198</v>
+      </c>
+      <c r="C167">
+        <v>-75.812630111547804</v>
+      </c>
+      <c r="D167">
+        <v>-14898</v>
+      </c>
+      <c r="E167">
+        <v>-7625</v>
+      </c>
+      <c r="F167">
+        <v>16735.920321272999</v>
+      </c>
       <c r="O167">
         <v>21800</v>
       </c>
@@ -14275,7 +16030,25 @@
         <v>3162.2405031875701</v>
       </c>
     </row>
-    <row r="168" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>14800</v>
+      </c>
+      <c r="B168">
+        <v>58506.000683533603</v>
+      </c>
+      <c r="C168">
+        <v>-75.803952755489604</v>
+      </c>
+      <c r="D168">
+        <v>-14994</v>
+      </c>
+      <c r="E168">
+        <v>-7677</v>
+      </c>
+      <c r="F168">
+        <v>16845.069456668902</v>
+      </c>
       <c r="O168">
         <v>22000</v>
       </c>
@@ -14295,7 +16068,25 @@
         <v>3189.3886561534</v>
       </c>
     </row>
-    <row r="169" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>15000</v>
+      </c>
+      <c r="B169">
+        <v>58019.225968719198</v>
+      </c>
+      <c r="C169">
+        <v>-75.547525711814401</v>
+      </c>
+      <c r="D169">
+        <v>-15085</v>
+      </c>
+      <c r="E169">
+        <v>-7809</v>
+      </c>
+      <c r="F169">
+        <v>16986.397675787499</v>
+      </c>
       <c r="O169">
         <v>22200</v>
       </c>
@@ -14315,7 +16106,25 @@
         <v>3215.7813980430901</v>
       </c>
     </row>
-    <row r="170" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>15200</v>
+      </c>
+      <c r="B170">
+        <v>57489.943924709303</v>
+      </c>
+      <c r="C170">
+        <v>-75.302222463952106</v>
+      </c>
+      <c r="D170">
+        <v>-15190</v>
+      </c>
+      <c r="E170">
+        <v>-7946</v>
+      </c>
+      <c r="F170">
+        <v>17142.7832046025</v>
+      </c>
       <c r="O170">
         <v>22400</v>
       </c>
@@ -14335,7 +16144,25 @@
         <v>3245.8565895615302</v>
       </c>
     </row>
-    <row r="171" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>15400</v>
+      </c>
+      <c r="B171">
+        <v>57135.116660935702</v>
+      </c>
+      <c r="C171">
+        <v>-75.149722541928696</v>
+      </c>
+      <c r="D171">
+        <v>-15263</v>
+      </c>
+      <c r="E171">
+        <v>-8036</v>
+      </c>
+      <c r="F171">
+        <v>17249.245345811501</v>
+      </c>
       <c r="O171">
         <v>22600</v>
       </c>
@@ -14355,7 +16182,25 @@
         <v>3269.29288990754</v>
       </c>
     </row>
-    <row r="172" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>15600</v>
+      </c>
+      <c r="B172">
+        <v>56742.864442461199</v>
+      </c>
+      <c r="C172">
+        <v>-74.920391572519407</v>
+      </c>
+      <c r="D172">
+        <v>-15336</v>
+      </c>
+      <c r="E172">
+        <v>-8153</v>
+      </c>
+      <c r="F172">
+        <v>17368.485973164199</v>
+      </c>
       <c r="O172">
         <v>22800</v>
       </c>
@@ -14375,7 +16220,25 @@
         <v>3299.8704520026199</v>
       </c>
     </row>
-    <row r="173" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>15800</v>
+      </c>
+      <c r="B173">
+        <v>56333.949190603998</v>
+      </c>
+      <c r="C173">
+        <v>-74.661111715219107</v>
+      </c>
+      <c r="D173">
+        <v>-15410</v>
+      </c>
+      <c r="E173">
+        <v>-8282</v>
+      </c>
+      <c r="F173">
+        <v>17494.559840133199</v>
+      </c>
       <c r="O173">
         <v>23000</v>
       </c>
@@ -14395,7 +16258,25 @@
         <v>3323.7636799267202</v>
       </c>
     </row>
-    <row r="174" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>16000</v>
+      </c>
+      <c r="B174">
+        <v>55879.949288213204</v>
+      </c>
+      <c r="C174">
+        <v>-74.237191138825295</v>
+      </c>
+      <c r="D174">
+        <v>-15473</v>
+      </c>
+      <c r="E174">
+        <v>-8464</v>
+      </c>
+      <c r="F174">
+        <v>17636.695410421999</v>
+      </c>
       <c r="O174">
         <v>23200</v>
       </c>
@@ -14415,7 +16296,25 @@
         <v>3350.9488208565599</v>
       </c>
     </row>
-    <row r="175" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>16200</v>
+      </c>
+      <c r="B175">
+        <v>55652.212094774397</v>
+      </c>
+      <c r="C175">
+        <v>-74.187894798884599</v>
+      </c>
+      <c r="D175">
+        <v>-15529</v>
+      </c>
+      <c r="E175">
+        <v>-8512</v>
+      </c>
+      <c r="F175">
+        <v>17708.867411554002</v>
+      </c>
       <c r="O175">
         <v>23400</v>
       </c>
@@ -14435,7 +16334,25 @@
         <v>3373.1832147098098</v>
       </c>
     </row>
-    <row r="176" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>16400</v>
+      </c>
+      <c r="B176">
+        <v>55256.542549395097</v>
+      </c>
+      <c r="C176">
+        <v>-73.728781098437295</v>
+      </c>
+      <c r="D176">
+        <v>-15571</v>
+      </c>
+      <c r="E176">
+        <v>-8698</v>
+      </c>
+      <c r="F176">
+        <v>17835.673382297598</v>
+      </c>
       <c r="O176">
         <v>23600</v>
       </c>
@@ -14455,7 +16372,25 @@
         <v>3402.6109092871602</v>
       </c>
     </row>
-    <row r="177" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>16600</v>
+      </c>
+      <c r="B177">
+        <v>54997.408473365504</v>
+      </c>
+      <c r="C177">
+        <v>-73.615120977984802</v>
+      </c>
+      <c r="D177">
+        <v>-15627</v>
+      </c>
+      <c r="E177">
+        <v>-8770</v>
+      </c>
+      <c r="F177">
+        <v>17919.710628244</v>
+      </c>
       <c r="O177">
         <v>23800</v>
       </c>
@@ -14475,7 +16410,25 @@
         <v>3430.2712720716399</v>
       </c>
     </row>
-    <row r="178" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>16800</v>
+      </c>
+      <c r="B178">
+        <v>54622.851186174797</v>
+      </c>
+      <c r="C178">
+        <v>-73.163070449147298</v>
+      </c>
+      <c r="D178">
+        <v>-15664</v>
+      </c>
+      <c r="E178">
+        <v>-8954</v>
+      </c>
+      <c r="F178">
+        <v>18042.588838634001</v>
+      </c>
       <c r="O178">
         <v>24000</v>
       </c>
@@ -14495,7 +16448,25 @@
         <v>3459.8982644002699</v>
       </c>
     </row>
-    <row r="179" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>17000</v>
+      </c>
+      <c r="B179">
+        <v>54399.900743242099</v>
+      </c>
+      <c r="C179">
+        <v>-73.085435297655295</v>
+      </c>
+      <c r="D179">
+        <v>-15716</v>
+      </c>
+      <c r="E179">
+        <v>-9012</v>
+      </c>
+      <c r="F179">
+        <v>18116.533884824701</v>
+      </c>
       <c r="O179">
         <v>24200</v>
       </c>
@@ -14515,7 +16486,25 @@
         <v>3481.42054339892</v>
       </c>
     </row>
-    <row r="180" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>17200</v>
+      </c>
+      <c r="B180">
+        <v>54095.322548554301</v>
+      </c>
+      <c r="C180">
+        <v>-72.673988945042694</v>
+      </c>
+      <c r="D180">
+        <v>-15739</v>
+      </c>
+      <c r="E180">
+        <v>-9176</v>
+      </c>
+      <c r="F180">
+        <v>18218.5371805752</v>
+      </c>
       <c r="O180">
         <v>24400</v>
       </c>
@@ -14535,7 +16524,25 @@
         <v>3511.7815991317002</v>
       </c>
     </row>
-    <row r="181" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>17400</v>
+      </c>
+      <c r="B181">
+        <v>53849.207124042303</v>
+      </c>
+      <c r="C181">
+        <v>-72.445199308868695</v>
+      </c>
+      <c r="D181">
+        <v>-15774</v>
+      </c>
+      <c r="E181">
+        <v>-9281</v>
+      </c>
+      <c r="F181">
+        <v>18301.804200679198</v>
+      </c>
       <c r="O181">
         <v>24600</v>
       </c>
@@ -14555,7 +16562,25 @@
         <v>3538.5296381406802</v>
       </c>
     </row>
-    <row r="182" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>17600</v>
+      </c>
+      <c r="B182">
+        <v>53606.533490082598</v>
+      </c>
+      <c r="C182">
+        <v>-72.003101326808604</v>
+      </c>
+      <c r="D182">
+        <v>-15773</v>
+      </c>
+      <c r="E182">
+        <v>-9445</v>
+      </c>
+      <c r="F182">
+        <v>18384.655395193</v>
+      </c>
       <c r="O182">
         <v>24800</v>
       </c>
@@ -14575,7 +16600,25 @@
         <v>3566.9875245086</v>
       </c>
     </row>
-    <row r="183" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>17800</v>
+      </c>
+      <c r="B183">
+        <v>53390.178349450798</v>
+      </c>
+      <c r="C183">
+        <v>-71.786777121728207</v>
+      </c>
+      <c r="D183">
+        <v>-15801</v>
+      </c>
+      <c r="E183">
+        <v>-9543</v>
+      </c>
+      <c r="F183">
+        <v>18459.156264574998</v>
+      </c>
       <c r="O183">
         <v>25000</v>
       </c>
@@ -14595,7 +16638,25 @@
         <v>3594.1396745257398</v>
       </c>
     </row>
-    <row r="184" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>18000</v>
+      </c>
+      <c r="B184">
+        <v>53180.672482473798</v>
+      </c>
+      <c r="C184">
+        <v>-71.564729769656793</v>
+      </c>
+      <c r="D184">
+        <v>-15826</v>
+      </c>
+      <c r="E184">
+        <v>-9642</v>
+      </c>
+      <c r="F184">
+        <v>18531.876321624899</v>
+      </c>
       <c r="O184">
         <v>25200</v>
       </c>
@@ -14615,7 +16676,25 @@
         <v>3619.6311966828898</v>
       </c>
     </row>
-    <row r="185" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>18200</v>
+      </c>
+      <c r="B185">
+        <v>52875.703368469498</v>
+      </c>
+      <c r="C185">
+        <v>-71.076111572169793</v>
+      </c>
+      <c r="D185">
+        <v>-15834</v>
+      </c>
+      <c r="E185">
+        <v>-9833</v>
+      </c>
+      <c r="F185">
+        <v>18638.761895576601</v>
+      </c>
       <c r="O185">
         <v>25400</v>
       </c>
@@ -14635,7 +16714,25 @@
         <v>3641.5471986506</v>
       </c>
     </row>
-    <row r="186" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>18400</v>
+      </c>
+      <c r="B186">
+        <v>52642.367957893199</v>
+      </c>
+      <c r="C186">
+        <v>-70.843757350505399</v>
+      </c>
+      <c r="D186">
+        <v>-15864</v>
+      </c>
+      <c r="E186">
+        <v>-9941</v>
+      </c>
+      <c r="F186">
+        <v>18721.3775401278</v>
+      </c>
       <c r="O186">
         <v>25600</v>
       </c>
@@ -14655,7 +16752,25 @@
         <v>3672.3507457757901</v>
       </c>
     </row>
-    <row r="187" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>18600</v>
+      </c>
+      <c r="B187">
+        <v>52491.524519409999</v>
+      </c>
+      <c r="C187">
+        <v>-70.542790957616205</v>
+      </c>
+      <c r="D187">
+        <v>-15857</v>
+      </c>
+      <c r="E187">
+        <v>-10053</v>
+      </c>
+      <c r="F187">
+        <v>18775.176643643099</v>
+      </c>
       <c r="O187">
         <v>25800</v>
       </c>
@@ -14675,7 +16790,25 @@
         <v>3699.7060694060501</v>
       </c>
     </row>
-    <row r="188" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>18800</v>
+      </c>
+      <c r="B188">
+        <v>52348.319398013002</v>
+      </c>
+      <c r="C188">
+        <v>-70.212476638124002</v>
+      </c>
+      <c r="D188">
+        <v>-15842</v>
+      </c>
+      <c r="E188">
+        <v>-10172</v>
+      </c>
+      <c r="F188">
+        <v>18826.5383966357</v>
+      </c>
       <c r="O188">
         <v>26000</v>
       </c>
@@ -14695,7 +16828,25 @@
         <v>3726.4728631777298</v>
       </c>
     </row>
-    <row r="189" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>19000</v>
+      </c>
+      <c r="B189">
+        <v>52216.348316360702</v>
+      </c>
+      <c r="C189">
+        <v>-69.893385925567301</v>
+      </c>
+      <c r="D189">
+        <v>-15825</v>
+      </c>
+      <c r="E189">
+        <v>-10286</v>
+      </c>
+      <c r="F189">
+        <v>18874.120403346002</v>
+      </c>
       <c r="O189">
         <v>26200</v>
       </c>
@@ -14715,7 +16866,25 @@
         <v>3751.4318599702701</v>
       </c>
     </row>
-    <row r="190" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>19200</v>
+      </c>
+      <c r="B190">
+        <v>52055.181520401602</v>
+      </c>
+      <c r="C190">
+        <v>-69.396937399262001</v>
+      </c>
+      <c r="D190">
+        <v>-15784</v>
+      </c>
+      <c r="E190">
+        <v>-10455</v>
+      </c>
+      <c r="F190">
+        <v>18932.556113742299</v>
+      </c>
       <c r="O190">
         <v>26400</v>
       </c>
@@ -14735,7 +16904,25 @@
         <v>3778.4331408667299</v>
       </c>
     </row>
-    <row r="191" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>19400</v>
+      </c>
+      <c r="B191">
+        <v>51968.519431201399</v>
+      </c>
+      <c r="C191">
+        <v>-69.340510913072904</v>
+      </c>
+      <c r="D191">
+        <v>-15800</v>
+      </c>
+      <c r="E191">
+        <v>-10488</v>
+      </c>
+      <c r="F191">
+        <v>18964.127820704001</v>
+      </c>
       <c r="O191">
         <v>26600</v>
       </c>
@@ -14755,7 +16942,25 @@
         <v>3801.1725822435401</v>
       </c>
     </row>
-    <row r="192" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>19600</v>
+      </c>
+      <c r="B192">
+        <v>51720.5314062662</v>
+      </c>
+      <c r="C192">
+        <v>-68.791222850213998</v>
+      </c>
+      <c r="D192">
+        <v>-15774</v>
+      </c>
+      <c r="E192">
+        <v>-10690</v>
+      </c>
+      <c r="F192">
+        <v>19055.056441795201</v>
+      </c>
       <c r="O192">
         <v>26800</v>
       </c>
@@ -14775,7 +16980,25 @@
         <v>3832.6279495928102</v>
       </c>
     </row>
-    <row r="193" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>19800</v>
+      </c>
+      <c r="B193">
+        <v>51568.7708198404</v>
+      </c>
+      <c r="C193">
+        <v>-68.676916848252802</v>
+      </c>
+      <c r="D193">
+        <v>-15799</v>
+      </c>
+      <c r="E193">
+        <v>-10753</v>
+      </c>
+      <c r="F193">
+        <v>19111.133142752198</v>
+      </c>
       <c r="O193">
         <v>27000</v>
       </c>
@@ -14795,7 +17018,25 @@
         <v>3865.6033164307</v>
       </c>
     </row>
-    <row r="194" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>20000</v>
+      </c>
+      <c r="B194">
+        <v>51325.929753048302</v>
+      </c>
+      <c r="C194">
+        <v>-68.292988258658397</v>
+      </c>
+      <c r="D194">
+        <v>-15801</v>
+      </c>
+      <c r="E194">
+        <v>-10910</v>
+      </c>
+      <c r="F194">
+        <v>19201.554650600599</v>
+      </c>
       <c r="O194">
         <v>27200</v>
       </c>
@@ -14815,7 +17056,25 @@
         <v>3884.2360896320401</v>
       </c>
     </row>
-    <row r="195" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>20200</v>
+      </c>
+      <c r="B195">
+        <v>51158.306264024402</v>
+      </c>
+      <c r="C195">
+        <v>-68.205286786370493</v>
+      </c>
+      <c r="D195">
+        <v>-15836</v>
+      </c>
+      <c r="E195">
+        <v>-10970</v>
+      </c>
+      <c r="F195">
+        <v>19264.469782477801</v>
+      </c>
       <c r="O195">
         <v>27400</v>
       </c>
@@ -14835,7 +17094,25 @@
         <v>3912.3840557900198</v>
       </c>
     </row>
-    <row r="196" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>20400</v>
+      </c>
+      <c r="B196">
+        <v>51026.099369467403</v>
+      </c>
+      <c r="C196">
+        <v>-67.631023042488394</v>
+      </c>
+      <c r="D196">
+        <v>-15766</v>
+      </c>
+      <c r="E196">
+        <v>-11157</v>
+      </c>
+      <c r="F196">
+        <v>19314.383370949199</v>
+      </c>
       <c r="O196">
         <v>27600</v>
       </c>
@@ -14855,7 +17132,25 @@
         <v>3936.4401430734301</v>
       </c>
     </row>
-    <row r="197" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>20600</v>
+      </c>
+      <c r="B197">
+        <v>51004.464017213002</v>
+      </c>
+      <c r="C197">
+        <v>-67.320685006561604</v>
+      </c>
+      <c r="D197">
+        <v>-15712</v>
+      </c>
+      <c r="E197">
+        <v>-11247</v>
+      </c>
+      <c r="F197">
+        <v>19322.576251628601</v>
+      </c>
       <c r="O197">
         <v>27800</v>
       </c>
@@ -14875,7 +17170,25 @@
         <v>3965.4963119387698</v>
       </c>
     </row>
-    <row r="198" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>20800</v>
+      </c>
+      <c r="B198">
+        <v>50889.706163353701</v>
+      </c>
+      <c r="C198">
+        <v>-66.723060453672105</v>
+      </c>
+      <c r="D198">
+        <v>-15629</v>
+      </c>
+      <c r="E198">
+        <v>-11436</v>
+      </c>
+      <c r="F198">
+        <v>19366.149255853601</v>
+      </c>
       <c r="O198">
         <v>28000</v>
       </c>
@@ -14895,7 +17208,25 @@
         <v>3991.3969985457502</v>
       </c>
     </row>
-    <row r="199" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>21000</v>
+      </c>
+      <c r="B199">
+        <v>50838.796781746103</v>
+      </c>
+      <c r="C199">
+        <v>-66.475284553646802</v>
+      </c>
+      <c r="D199">
+        <v>-15595</v>
+      </c>
+      <c r="E199">
+        <v>-11515</v>
+      </c>
+      <c r="F199">
+        <v>19385.5422931627</v>
+      </c>
       <c r="O199">
         <v>28200</v>
       </c>
@@ -14915,7 +17246,25 @@
         <v>4021.3476596782798</v>
       </c>
     </row>
-    <row r="200" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>21200</v>
+      </c>
+      <c r="B200">
+        <v>50735.754667640504</v>
+      </c>
+      <c r="C200">
+        <v>-65.850865516168795</v>
+      </c>
+      <c r="D200">
+        <v>-15500</v>
+      </c>
+      <c r="E200">
+        <v>-11708</v>
+      </c>
+      <c r="F200">
+        <v>19424.913487580801</v>
+      </c>
       <c r="O200">
         <v>28400</v>
       </c>
@@ -14935,7 +17284,25 @@
         <v>4048.6484164471499</v>
       </c>
     </row>
-    <row r="201" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>21400</v>
+      </c>
+      <c r="B201">
+        <v>50674.137722482599</v>
+      </c>
+      <c r="C201">
+        <v>-65.622488679411603</v>
+      </c>
+      <c r="D201">
+        <v>-15472</v>
+      </c>
+      <c r="E201">
+        <v>-11784</v>
+      </c>
+      <c r="F201">
+        <v>19448.5331066381</v>
+      </c>
       <c r="O201">
         <v>28600</v>
       </c>
@@ -14955,7 +17322,25 @@
         <v>4075.4987424853898</v>
       </c>
     </row>
-    <row r="202" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>21600</v>
+      </c>
+      <c r="B202">
+        <v>50549.013311687297</v>
+      </c>
+      <c r="C202">
+        <v>-65.133906305803706</v>
+      </c>
+      <c r="D202">
+        <v>-15409</v>
+      </c>
+      <c r="E202">
+        <v>-11945</v>
+      </c>
+      <c r="F202">
+        <v>19496.674229211501</v>
+      </c>
       <c r="O202">
         <v>28800</v>
       </c>
@@ -14975,7 +17360,25 @@
         <v>4097.95912619928</v>
       </c>
     </row>
-    <row r="203" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>21800</v>
+      </c>
+      <c r="B203">
+        <v>50457.361313903697</v>
+      </c>
+      <c r="C203">
+        <v>-64.995323514601495</v>
+      </c>
+      <c r="D203">
+        <v>-15408</v>
+      </c>
+      <c r="E203">
+        <v>-12004</v>
+      </c>
+      <c r="F203">
+        <v>19532.0884700024</v>
+      </c>
       <c r="O203">
         <v>29000</v>
       </c>
@@ -14995,7 +17398,25 @@
         <v>4128.8677624743596</v>
       </c>
     </row>
-    <row r="204" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>22000</v>
+      </c>
+      <c r="B204">
+        <v>50346.375525104202</v>
+      </c>
+      <c r="C204">
+        <v>-64.587762187706801</v>
+      </c>
+      <c r="D204">
+        <v>-15356</v>
+      </c>
+      <c r="E204">
+        <v>-12140</v>
+      </c>
+      <c r="F204">
+        <v>19575.145874296799</v>
+      </c>
       <c r="O204">
         <v>29200</v>
       </c>
@@ -15015,7 +17436,25 @@
         <v>4150.0026506015602</v>
       </c>
     </row>
-    <row r="205" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>22200</v>
+      </c>
+      <c r="B205">
+        <v>50219.563417753998</v>
+      </c>
+      <c r="C205">
+        <v>-64.433723174225705</v>
+      </c>
+      <c r="D205">
+        <v>-15362</v>
+      </c>
+      <c r="E205">
+        <v>-12212</v>
+      </c>
+      <c r="F205">
+        <v>19624.5761228109</v>
+      </c>
       <c r="O205">
         <v>29400</v>
       </c>
@@ -15035,7 +17474,25 @@
         <v>4176.4914701217804</v>
       </c>
     </row>
-    <row r="206" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>22400</v>
+      </c>
+      <c r="B206">
+        <v>50053.695410238601</v>
+      </c>
+      <c r="C206">
+        <v>-64.238176143329</v>
+      </c>
+      <c r="D206">
+        <v>-15371</v>
+      </c>
+      <c r="E206">
+        <v>-12305</v>
+      </c>
+      <c r="F206">
+        <v>19689.6080712644</v>
+      </c>
       <c r="O206">
         <v>29600</v>
       </c>
@@ -15055,7 +17512,25 @@
         <v>4204.7345932888602</v>
       </c>
     </row>
-    <row r="207" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>22600</v>
+      </c>
+      <c r="B207">
+        <v>49809.741451448899</v>
+      </c>
+      <c r="C207">
+        <v>-64.098071449629899</v>
+      </c>
+      <c r="D207">
+        <v>-15416</v>
+      </c>
+      <c r="E207">
+        <v>-12403</v>
+      </c>
+      <c r="F207">
+        <v>19786.042176241299</v>
+      </c>
       <c r="O207">
         <v>29800</v>
       </c>
@@ -15075,7 +17550,25 @@
         <v>4236.2995644784096</v>
       </c>
     </row>
-    <row r="208" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>22800</v>
+      </c>
+      <c r="B208">
+        <v>49718.972896459898</v>
+      </c>
+      <c r="C208">
+        <v>-64.055927142438705</v>
+      </c>
+      <c r="D208">
+        <v>-15435</v>
+      </c>
+      <c r="E208">
+        <v>-12437</v>
+      </c>
+      <c r="F208">
+        <v>19822.164210801999</v>
+      </c>
       <c r="O208">
         <v>30000</v>
       </c>
@@ -15093,6 +17586,726 @@
       </c>
       <c r="T208">
         <v>4260.5128799242002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>23000</v>
+      </c>
+      <c r="B209">
+        <v>49655.7855331795</v>
+      </c>
+      <c r="C209">
+        <v>-63.159835799762</v>
+      </c>
+      <c r="D209">
+        <v>-15258</v>
+      </c>
+      <c r="E209">
+        <v>-12693</v>
+      </c>
+      <c r="F209">
+        <v>19847.3880649319</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>23200</v>
+      </c>
+      <c r="B210">
+        <v>49651.940518923402</v>
+      </c>
+      <c r="C210">
+        <v>-62.696361989809503</v>
+      </c>
+      <c r="D210">
+        <v>-15156</v>
+      </c>
+      <c r="E210">
+        <v>-12817</v>
+      </c>
+      <c r="F210">
+        <v>19848.925033865198</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>23400</v>
+      </c>
+      <c r="B211">
+        <v>49648.146985734398</v>
+      </c>
+      <c r="C211">
+        <v>-61.985656826136498</v>
+      </c>
+      <c r="D211">
+        <v>-14997</v>
+      </c>
+      <c r="E211">
+        <v>-13005</v>
+      </c>
+      <c r="F211">
+        <v>19850.4416575551</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>23600</v>
+      </c>
+      <c r="B212">
+        <v>49652.527876346699</v>
+      </c>
+      <c r="C212">
+        <v>-61.609580127143097</v>
+      </c>
+      <c r="D212">
+        <v>-14910</v>
+      </c>
+      <c r="E212">
+        <v>-13102</v>
+      </c>
+      <c r="F212">
+        <v>19848.690233866801</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>23800</v>
+      </c>
+      <c r="B213">
+        <v>49614.211313166998</v>
+      </c>
+      <c r="C213">
+        <v>-60.895744536873799</v>
+      </c>
+      <c r="D213">
+        <v>-14757</v>
+      </c>
+      <c r="E213">
+        <v>-13297</v>
+      </c>
+      <c r="F213">
+        <v>19864.019180417599</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>24000</v>
+      </c>
+      <c r="B214">
+        <v>49623.582694472803</v>
+      </c>
+      <c r="C214">
+        <v>-60.594024434729398</v>
+      </c>
+      <c r="D214">
+        <v>-14684</v>
+      </c>
+      <c r="E214">
+        <v>-13372</v>
+      </c>
+      <c r="F214">
+        <v>19860.267873319299</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>24200</v>
+      </c>
+      <c r="B215">
+        <v>49584.457257845403</v>
+      </c>
+      <c r="C215">
+        <v>-59.839147376935998</v>
+      </c>
+      <c r="D215">
+        <v>-14518</v>
+      </c>
+      <c r="E215">
+        <v>-13575</v>
+      </c>
+      <c r="F215">
+        <v>19875.938946374299</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>24400</v>
+      </c>
+      <c r="B216">
+        <v>49592.195027244503</v>
+      </c>
+      <c r="C216">
+        <v>-59.621199935088498</v>
+      </c>
+      <c r="D216">
+        <v>-14464</v>
+      </c>
+      <c r="E216">
+        <v>-13628</v>
+      </c>
+      <c r="F216">
+        <v>19872.837744016299</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>24600</v>
+      </c>
+      <c r="B217">
+        <v>49544.3548993859</v>
+      </c>
+      <c r="C217">
+        <v>-59.057248533528799</v>
+      </c>
+      <c r="D217">
+        <v>-14343</v>
+      </c>
+      <c r="E217">
+        <v>-13783</v>
+      </c>
+      <c r="F217">
+        <v>19892.026995758901</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>24800</v>
+      </c>
+      <c r="B218">
+        <v>49521.569101153997</v>
+      </c>
+      <c r="C218">
+        <v>-58.822572787287001</v>
+      </c>
+      <c r="D218">
+        <v>-14293</v>
+      </c>
+      <c r="E218">
+        <v>-13848</v>
+      </c>
+      <c r="F218">
+        <v>19901.179688651599</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>25000</v>
+      </c>
+      <c r="B219">
+        <v>49454.860380584403</v>
+      </c>
+      <c r="C219">
+        <v>-58.5041726109161</v>
+      </c>
+      <c r="D219">
+        <v>-14235</v>
+      </c>
+      <c r="E219">
+        <v>-13946</v>
+      </c>
+      <c r="F219">
+        <v>19928.0240114267</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>25200</v>
+      </c>
+      <c r="B220">
+        <v>49402.575086053199</v>
+      </c>
+      <c r="C220">
+        <v>-58.184694149510896</v>
+      </c>
+      <c r="D220">
+        <v>-14172</v>
+      </c>
+      <c r="E220">
+        <v>-14040</v>
+      </c>
+      <c r="F220">
+        <v>19949.114867582499</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>25400</v>
+      </c>
+      <c r="B221">
+        <v>49324.439825166599</v>
+      </c>
+      <c r="C221">
+        <v>-57.9105341711699</v>
+      </c>
+      <c r="D221">
+        <v>-14127</v>
+      </c>
+      <c r="E221">
+        <v>-14130</v>
+      </c>
+      <c r="F221">
+        <v>19980.716428596901</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>25600</v>
+      </c>
+      <c r="B222">
+        <v>49219.317935449799</v>
+      </c>
+      <c r="C222">
+        <v>-57.631324303386101</v>
+      </c>
+      <c r="D222">
+        <v>-14088</v>
+      </c>
+      <c r="E222">
+        <v>-14229</v>
+      </c>
+      <c r="F222">
+        <v>20023.3909465904</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>25800</v>
+      </c>
+      <c r="B223">
+        <v>49091.147182598303</v>
+      </c>
+      <c r="C223">
+        <v>-57.660320617461899</v>
+      </c>
+      <c r="D223">
+        <v>-14132</v>
+      </c>
+      <c r="E223">
+        <v>-14259</v>
+      </c>
+      <c r="F223">
+        <v>20075.669478251501</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>26000</v>
+      </c>
+      <c r="B224">
+        <v>48931.780314728698</v>
+      </c>
+      <c r="C224">
+        <v>-57.500227831833399</v>
+      </c>
+      <c r="D224">
+        <v>-14138</v>
+      </c>
+      <c r="E224">
+        <v>-14345</v>
+      </c>
+      <c r="F224">
+        <v>20141.0543169915</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>26200</v>
+      </c>
+      <c r="B225">
+        <v>48783.030035738702</v>
+      </c>
+      <c r="C225">
+        <v>-57.543608265975202</v>
+      </c>
+      <c r="D225">
+        <v>-14192</v>
+      </c>
+      <c r="E225">
+        <v>-14378</v>
+      </c>
+      <c r="F225">
+        <v>20202.4688590281</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>26400</v>
+      </c>
+      <c r="B226">
+        <v>48522.495769995301</v>
+      </c>
+      <c r="C226">
+        <v>-57.435888875663998</v>
+      </c>
+      <c r="D226">
+        <v>-14241</v>
+      </c>
+      <c r="E226">
+        <v>-14482</v>
+      </c>
+      <c r="F226">
+        <v>20310.942986479</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>26600</v>
+      </c>
+      <c r="B227">
+        <v>48276.251837411903</v>
+      </c>
+      <c r="C227">
+        <v>-57.571298677364403</v>
+      </c>
+      <c r="D227">
+        <v>-14348</v>
+      </c>
+      <c r="E227">
+        <v>-14522</v>
+      </c>
+      <c r="F227">
+        <v>20414.543541309002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>26800</v>
+      </c>
+      <c r="B228">
+        <v>48170.140738775997</v>
+      </c>
+      <c r="C228">
+        <v>-57.074995558227499</v>
+      </c>
+      <c r="D228">
+        <v>-14253</v>
+      </c>
+      <c r="E228">
+        <v>-14678</v>
+      </c>
+      <c r="F228">
+        <v>20459.513508390199</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>27000</v>
+      </c>
+      <c r="B229">
+        <v>48168.662819503799</v>
+      </c>
+      <c r="C229">
+        <v>-56.4867974534585</v>
+      </c>
+      <c r="D229">
+        <v>-14102</v>
+      </c>
+      <c r="E229">
+        <v>-14824</v>
+      </c>
+      <c r="F229">
+        <v>20460.141250734301</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>27200</v>
+      </c>
+      <c r="B230">
+        <v>48170.171809508603</v>
+      </c>
+      <c r="C230">
+        <v>-55.529766329060301</v>
+      </c>
+      <c r="D230">
+        <v>-13852</v>
+      </c>
+      <c r="E230">
+        <v>-15057</v>
+      </c>
+      <c r="F230">
+        <v>20459.5003115912</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>27400</v>
+      </c>
+      <c r="B231">
+        <v>48187.382666404497</v>
+      </c>
+      <c r="C231">
+        <v>-55.066874039911099</v>
+      </c>
+      <c r="D231">
+        <v>-13725</v>
+      </c>
+      <c r="E231">
+        <v>-15163</v>
+      </c>
+      <c r="F231">
+        <v>20452.192889761202</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>27600</v>
+      </c>
+      <c r="B232">
+        <v>48234.012666212897</v>
+      </c>
+      <c r="C232">
+        <v>-54.323337787193402</v>
+      </c>
+      <c r="D232">
+        <v>-13514</v>
+      </c>
+      <c r="E232">
+        <v>-15325</v>
+      </c>
+      <c r="F232">
+        <v>20432.420830630901</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>27800</v>
+      </c>
+      <c r="B233">
+        <v>48186.470766783197</v>
+      </c>
+      <c r="C233">
+        <v>-53.645834490535101</v>
+      </c>
+      <c r="D233">
+        <v>-13345</v>
+      </c>
+      <c r="E233">
+        <v>-15499</v>
+      </c>
+      <c r="F233">
+        <v>20452.579935059501</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>28000</v>
+      </c>
+      <c r="B234">
+        <v>48181.757730026198</v>
+      </c>
+      <c r="C234">
+        <v>-52.847356147910503</v>
+      </c>
+      <c r="D234">
+        <v>-13129</v>
+      </c>
+      <c r="E234">
+        <v>-15685</v>
+      </c>
+      <c r="F234">
+        <v>20454.580562798201</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>28200</v>
+      </c>
+      <c r="B235">
+        <v>48179.953793081302</v>
+      </c>
+      <c r="C235">
+        <v>-52.252731736902803</v>
+      </c>
+      <c r="D235">
+        <v>-12966</v>
+      </c>
+      <c r="E235">
+        <v>-15821</v>
+      </c>
+      <c r="F235">
+        <v>20455.3464160351</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>28400</v>
+      </c>
+      <c r="B236">
+        <v>48181.052966570896</v>
+      </c>
+      <c r="C236">
+        <v>-51.493746328715702</v>
+      </c>
+      <c r="D236">
+        <v>-12755</v>
+      </c>
+      <c r="E236">
+        <v>-15991</v>
+      </c>
+      <c r="F236">
+        <v>20454.879760096399</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>28600</v>
+      </c>
+      <c r="B237">
+        <v>48185.4194278223</v>
+      </c>
+      <c r="C237">
+        <v>-50.894792081474698</v>
+      </c>
+      <c r="D237">
+        <v>-12586</v>
+      </c>
+      <c r="E237">
+        <v>-16122</v>
+      </c>
+      <c r="F237">
+        <v>20453.026181961399</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>28800</v>
+      </c>
+      <c r="B238">
+        <v>48186.052964480703</v>
+      </c>
+      <c r="C238">
+        <v>-50.279562357896602</v>
+      </c>
+      <c r="D238">
+        <v>-12412</v>
+      </c>
+      <c r="E238">
+        <v>-16256</v>
+      </c>
+      <c r="F238">
+        <v>20452.7572713314</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>29000</v>
+      </c>
+      <c r="B239">
+        <v>48178.115979087102</v>
+      </c>
+      <c r="C239">
+        <v>-49.584848847995502</v>
+      </c>
+      <c r="D239">
+        <v>-12216</v>
+      </c>
+      <c r="E239">
+        <v>-16408</v>
+      </c>
+      <c r="F239">
+        <v>20456.126710597</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>29200</v>
+      </c>
+      <c r="B240">
+        <v>48199.772741959197</v>
+      </c>
+      <c r="C240">
+        <v>-49.0399957364735</v>
+      </c>
+      <c r="D240">
+        <v>-12054</v>
+      </c>
+      <c r="E240">
+        <v>-16516</v>
+      </c>
+      <c r="F240">
+        <v>20446.935516111</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>29400</v>
+      </c>
+      <c r="B241">
+        <v>48198.610842011403</v>
+      </c>
+      <c r="C241">
+        <v>-48.327582881327402</v>
+      </c>
+      <c r="D241">
+        <v>-11848</v>
+      </c>
+      <c r="E241">
+        <v>-16665</v>
+      </c>
+      <c r="F241">
+        <v>20447.428420219501</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>29600</v>
+      </c>
+      <c r="B242">
+        <v>48194.619392988599</v>
+      </c>
+      <c r="C242">
+        <v>-47.813608542792302</v>
+      </c>
+      <c r="D242">
+        <v>-11699</v>
+      </c>
+      <c r="E242">
+        <v>-16772</v>
+      </c>
+      <c r="F242">
+        <v>20449.121863786699</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>29800</v>
+      </c>
+      <c r="B243">
+        <v>48186.836971893499</v>
+      </c>
+      <c r="C243">
+        <v>-47.055779930042497</v>
+      </c>
+      <c r="D243">
+        <v>-11478</v>
+      </c>
+      <c r="E243">
+        <v>-16928</v>
+      </c>
+      <c r="F243">
+        <v>20452.4245017553</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>30000</v>
+      </c>
+      <c r="B244">
+        <v>48192.225091690903</v>
+      </c>
+      <c r="C244">
+        <v>-46.5639463788497</v>
+      </c>
+      <c r="D244">
+        <v>-11331</v>
+      </c>
+      <c r="E244">
+        <v>-17024</v>
+      </c>
+      <c r="F244">
+        <v>20450.1378234964</v>
       </c>
     </row>
   </sheetData>
